--- a/final_program/dist/ResultsFlashExcel.xlsx
+++ b/final_program/dist/ResultsFlashExcel.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C:/Github/PR_nonpeneloux_calculator/input_data.xlsx</t>
+          <t>C:/Github/PR_nonpeneloux_calculator/final_program/input_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230</v>
+        <v>373.15</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -484,59 +484,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Доля жидкости</t>
+          <t>Доля пара</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1</v>
+        <v>0.8500493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1354965993997093</v>
+        <v>0.8500493226639045</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Энтальпия жидкости</t>
+          <t>Сверхсжимаемость жидкости</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2353.3</v>
+        <v>0.4868716</v>
       </c>
       <c r="C8" t="n">
-        <v>-2353.327458099157</v>
+        <v>0.4868715930892519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Плотность жидкости</t>
+          <t>Сверхсжимаемость пара</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.8662583</v>
       </c>
       <c r="C9" t="n">
-        <v>1.035152241349515</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Сверхсжимаемость жидкости</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01632864477094631</v>
+        <v>0.8662582860670867</v>
       </c>
     </row>
   </sheetData>

--- a/final_program/dist/ResultsFlashExcel.xlsx
+++ b/final_program/dist/ResultsFlashExcel.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C:/Github/PR_nonpeneloux_calculator/final_program/input_data.xlsx</t>
+          <t>C:/Github/PR_nonpeneloux_calculator/PVTSIM_Fluid1_sostav.xlsx</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8500493</v>
+        <v>0.84775321</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8500493226639045</v>
+        <v>0.8477532103528587</v>
       </c>
     </row>
     <row r="8">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4868716</v>
+        <v>0.50660574</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4868715930892519</v>
+        <v>0.5066057359060379</v>
       </c>
     </row>
     <row r="9">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8662583</v>
+        <v>0.86532527</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8662582860670867</v>
+        <v>0.8653252716816155</v>
       </c>
     </row>
   </sheetData>
